--- a/data/trans_dic/P26-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P26-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2387299237540661</v>
+        <v>0.23664797189501</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3428380836281213</v>
+        <v>0.3404774258860716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2916415521717988</v>
+        <v>0.2935887282068858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1323363611226686</v>
+        <v>0.1336280499770063</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3368399637001733</v>
+        <v>0.3409057149448524</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4059794464602763</v>
+        <v>0.4097567100816812</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2894924831948307</v>
+        <v>0.2864123159234824</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1387611097600056</v>
+        <v>0.1407108601977211</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.310122489740528</v>
+        <v>0.3092656587095516</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3838534410720921</v>
+        <v>0.3848088706383264</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2989412691252876</v>
+        <v>0.2984868694879492</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1463661679769787</v>
+        <v>0.1453423856717003</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3216823138810099</v>
+        <v>0.3176688852728205</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4049348698176083</v>
+        <v>0.4022385164012995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.351301366668867</v>
+        <v>0.3513730132244103</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2158759413992202</v>
+        <v>0.2197798626029603</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.401459036623589</v>
+        <v>0.4087051528336585</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4677823459028085</v>
+        <v>0.4662830179835059</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3463452692818538</v>
+        <v>0.3420392260314791</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2010957180085709</v>
+        <v>0.2008958597304002</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3624104565032142</v>
+        <v>0.3589897679986387</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4277784009115563</v>
+        <v>0.4259955579487775</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3386285509668267</v>
+        <v>0.3392978038938184</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1970094779109599</v>
+        <v>0.1960226675691471</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2495089267646244</v>
+        <v>0.2530061616958338</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2994277381442474</v>
+        <v>0.2967736793130197</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2219191634655634</v>
+        <v>0.2234592560572801</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06292210945442821</v>
+        <v>0.06464974375340704</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3572265851442445</v>
+        <v>0.3547352833041871</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3885845012560667</v>
+        <v>0.3888418510826745</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2459110911226603</v>
+        <v>0.244659985284229</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1131717193015538</v>
+        <v>0.1132639722680855</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3118474661986571</v>
+        <v>0.3095529487902833</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3535419693765737</v>
+        <v>0.3538635304983211</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2412570837847464</v>
+        <v>0.2448796802533781</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09607053308327494</v>
+        <v>0.09608372330771367</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.309131143287439</v>
+        <v>0.3083665412538907</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3631013556787597</v>
+        <v>0.363387737066429</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2822080407139471</v>
+        <v>0.2836860075221415</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1102446241788577</v>
+        <v>0.115683368600514</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4200369613269765</v>
+        <v>0.4193661930252088</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.455597689171751</v>
+        <v>0.4494069174069035</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3053640470390472</v>
+        <v>0.307043793453738</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1549273612632832</v>
+        <v>0.1542572087490212</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.354289485461028</v>
+        <v>0.3545570664991697</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3981805426694056</v>
+        <v>0.3996603171897617</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2836029995840235</v>
+        <v>0.2853170404376926</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1258395744805617</v>
+        <v>0.1251032770169785</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2751418010379288</v>
+        <v>0.2762893641028634</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2594761788882021</v>
+        <v>0.2578292322587233</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1504610944385529</v>
+        <v>0.1533306152083535</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08107936747997768</v>
+        <v>0.08050424372362079</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3415822939266872</v>
+        <v>0.341323168105977</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.292125399099676</v>
+        <v>0.2912331228612956</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1598183065605364</v>
+        <v>0.1607878656391681</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1140507881850919</v>
+        <v>0.1138917360171831</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3146806471831847</v>
+        <v>0.3148564339639895</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.282212951345429</v>
+        <v>0.2839942039321839</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1638150660034013</v>
+        <v>0.1635167896091327</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1026890537670009</v>
+        <v>0.1045050616989364</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3333985699892981</v>
+        <v>0.3347136594736982</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3196335160591653</v>
+        <v>0.323065106569974</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2088333934249151</v>
+        <v>0.2094001184433517</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1295004126162187</v>
+        <v>0.1287307256464306</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4037955474541012</v>
+        <v>0.4060779808949953</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3576833388864433</v>
+        <v>0.3552534849917479</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2184306367663814</v>
+        <v>0.217100487081409</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.156268106243971</v>
+        <v>0.1542342934851724</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3575186618590246</v>
+        <v>0.3588404378699766</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3299234504728246</v>
+        <v>0.3280081150108697</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2063621341555931</v>
+        <v>0.2060627156919523</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.135256509493046</v>
+        <v>0.1357815883918891</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2272589396186298</v>
+        <v>0.2242369938862988</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2759235679638984</v>
+        <v>0.2737796901312238</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1808156211351094</v>
+        <v>0.1784757530735634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09801325151986279</v>
+        <v>0.09405652544878167</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2794308880366819</v>
+        <v>0.2850062706311742</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2652767059592357</v>
+        <v>0.2696655246840839</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2106527810444236</v>
+        <v>0.2107250262140835</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1093809500061392</v>
+        <v>0.1080813730574251</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2658999730187896</v>
+        <v>0.2645269722996445</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2815235294916389</v>
+        <v>0.2850302947665922</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.206110877679785</v>
+        <v>0.2088936263362066</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1089938254312098</v>
+        <v>0.1106616254476038</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3159434219083267</v>
+        <v>0.3163481791429024</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3623304560691841</v>
+        <v>0.3621054514246191</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.258208216705149</v>
+        <v>0.2595605092797371</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.149568193092912</v>
+        <v>0.1481317908159534</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3837169577124252</v>
+        <v>0.3841344191692754</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3592297835940892</v>
+        <v>0.3624769124417225</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2925088795021875</v>
+        <v>0.2987474157002152</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1548125413023847</v>
+        <v>0.1511985973049005</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3327446690311328</v>
+        <v>0.3300231376440169</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3444667510062751</v>
+        <v>0.3527114455995102</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2640383429487411</v>
+        <v>0.2637467647130285</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.143598202066703</v>
+        <v>0.1426349002493676</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2673132163643235</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1370880595541472</v>
+        <v>0.1370880595541471</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.330061169803515</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2702562394930945</v>
+        <v>0.2716661418028959</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3122630718424251</v>
+        <v>0.3127155351584142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2379937262979087</v>
+        <v>0.2371897530731712</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09904041774084174</v>
+        <v>0.09745381185799665</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3548903809745363</v>
+        <v>0.3564595447083282</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3708621833392448</v>
+        <v>0.3720769089877478</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2521698586031976</v>
+        <v>0.2521207900068104</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1258936296431996</v>
+        <v>0.1266427105731749</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3174728705022247</v>
+        <v>0.3170200322164128</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3471806337457492</v>
+        <v>0.3470548743675441</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2494867770414938</v>
+        <v>0.2497650347896207</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1174791098714909</v>
+        <v>0.1152729614144451</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3037953145456357</v>
+        <v>0.3042130545960489</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3474964236926541</v>
+        <v>0.3468696171298914</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.267983857464536</v>
+        <v>0.2697762822780749</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1262669340833172</v>
+        <v>0.1252653893096218</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3902919563028712</v>
+        <v>0.389303756561795</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4064926693610132</v>
+        <v>0.4062397789208758</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2830546231629219</v>
+        <v>0.283828089587717</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1478878510754064</v>
+        <v>0.1484821831898351</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.342122169226695</v>
+        <v>0.3413869456412555</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3711290769271981</v>
+        <v>0.3708585265714454</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2707338519595008</v>
+        <v>0.2712128325458844</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1353855628620766</v>
+        <v>0.133673442747594</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>127131</v>
+        <v>126022</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>342522</v>
+        <v>340164</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>307512</v>
+        <v>309565</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>55104</v>
+        <v>55642</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>273688</v>
+        <v>276992</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>435808</v>
+        <v>439862</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>339211</v>
+        <v>335601</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>75914</v>
+        <v>76980</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>417129</v>
+        <v>415977</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>795555</v>
+        <v>797536</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>665491</v>
+        <v>664479</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>141020</v>
+        <v>140034</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>171305</v>
+        <v>169168</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>404562</v>
+        <v>401868</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>370418</v>
+        <v>370494</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>89889</v>
+        <v>91515</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>326192</v>
+        <v>332080</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>502151</v>
+        <v>500542</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>405827</v>
+        <v>400782</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>110016</v>
+        <v>109907</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>487459</v>
+        <v>482858</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>886592</v>
+        <v>882897</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>753841</v>
+        <v>755331</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>189814</v>
+        <v>188863</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>250496</v>
+        <v>254007</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>281193</v>
+        <v>278700</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>186389</v>
+        <v>187683</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>54935</v>
+        <v>56444</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>342744</v>
+        <v>340354</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>397336</v>
+        <v>397599</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>230532</v>
+        <v>229359</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>113092</v>
+        <v>113185</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>612285</v>
+        <v>607780</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>693516</v>
+        <v>694146</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>428800</v>
+        <v>435239</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>179880</v>
+        <v>179904</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>310354</v>
+        <v>309586</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>340989</v>
+        <v>341258</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>237026</v>
+        <v>238267</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>96251</v>
+        <v>101000</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>403008</v>
+        <v>402364</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>465858</v>
+        <v>459528</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>286267</v>
+        <v>287842</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>154819</v>
+        <v>154149</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>695617</v>
+        <v>696142</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>781080</v>
+        <v>783982</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>504064</v>
+        <v>507111</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>235618</v>
+        <v>234240</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>290903</v>
+        <v>292116</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>220777</v>
+        <v>219376</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>115975</v>
+        <v>118187</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>77141</v>
+        <v>76594</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>320101</v>
+        <v>319858</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>240160</v>
+        <v>239427</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>114338</v>
+        <v>115032</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>109917</v>
+        <v>109764</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>627598</v>
+        <v>627949</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>472134</v>
+        <v>475113</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>243466</v>
+        <v>243022</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>196668</v>
+        <v>200146</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>352497</v>
+        <v>353887</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>271962</v>
+        <v>274882</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>160968</v>
+        <v>161405</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>123210</v>
+        <v>122478</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>378402</v>
+        <v>380541</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>294056</v>
+        <v>292059</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>156271</v>
+        <v>155319</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>150605</v>
+        <v>148645</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>713034</v>
+        <v>715670</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>551952</v>
+        <v>548747</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>306700</v>
+        <v>306255</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>259041</v>
+        <v>260047</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>95134</v>
+        <v>93869</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>131017</v>
+        <v>129999</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>83136</v>
+        <v>82060</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>89368</v>
+        <v>85760</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>90211</v>
+        <v>92011</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>113830</v>
+        <v>115713</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>93332</v>
+        <v>93364</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>94916</v>
+        <v>93789</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>197153</v>
+        <v>196135</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>254478</v>
+        <v>257647</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>186086</v>
+        <v>188598</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>193961</v>
+        <v>196929</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>132259</v>
+        <v>132428</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>172045</v>
+        <v>171939</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>118720</v>
+        <v>119342</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>136376</v>
+        <v>135066</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>123879</v>
+        <v>124014</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>154146</v>
+        <v>155539</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>129599</v>
+        <v>132363</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>134340</v>
+        <v>131204</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>246716</v>
+        <v>244698</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>311374</v>
+        <v>318826</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>238385</v>
+        <v>238122</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>255541</v>
+        <v>253827</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>814116</v>
+        <v>818363</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1019185</v>
+        <v>1020662</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>743706</v>
+        <v>741193</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>312243</v>
+        <v>307241</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1076002</v>
+        <v>1080760</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1241352</v>
+        <v>1245418</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>824012</v>
+        <v>823852</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>425256</v>
+        <v>427786</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1918905</v>
+        <v>1916168</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2295236</v>
+        <v>2294404</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1594865</v>
+        <v>1596644</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>767207</v>
+        <v>752800</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>915148</v>
+        <v>916407</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1134182</v>
+        <v>1132136</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>837422</v>
+        <v>843023</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>398080</v>
+        <v>394922</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1183338</v>
+        <v>1180341</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1360614</v>
+        <v>1359768</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>924934</v>
+        <v>927461</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>499550</v>
+        <v>501558</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2067893</v>
+        <v>2063450</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2453561</v>
+        <v>2451772</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1730689</v>
+        <v>1733751</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>884147</v>
+        <v>872966</v>
       </c>
     </row>
     <row r="24">
